--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\python\LiTS_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C616293E-1DD3-4EC9-BCF9-91078E3FF293}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B0E57-0A3B-4F3C-A952-C36709C9DDC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>网络名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,83 @@
   <si>
     <t>UNET-001-FIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-002-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-002-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNET-002-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNET-002-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无负样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep06_13-48-09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNET改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep06_15-52-53</t>
+  </si>
+  <si>
+    <t>UNETT-001-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNETT-001-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep08_13-36-40</t>
+  </si>
+  <si>
+    <t>输入3层，无负样本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-003-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-003-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNETT-002-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNETT-002-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep08_14-54-42</t>
   </si>
 </sst>
 </file>
@@ -151,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -159,13 +236,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,162 +605,437 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.57699999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.59370000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.7248</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.66969999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.68479999999999996</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E10" s="1">
         <v>0.75</v>
       </c>
-      <c r="F4">
+      <c r="F10" s="1">
         <v>0.77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="1">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E11" s="1">
         <v>0.75</v>
       </c>
-      <c r="F5">
+      <c r="F11" s="1">
         <v>0.77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.7117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.70860000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.7591</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.66610000000000003</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
         <v>16</v>
       </c>
-      <c r="I17">
+      <c r="R19">
         <v>1</v>
       </c>
-      <c r="J17" t="s">
+      <c r="S19" t="s">
         <v>18</v>
       </c>
-      <c r="K17" t="s">
+      <c r="T19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
+    <row r="20" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="S20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="J19" t="s">
+    <row r="21" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="S21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\python\LiTS_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547B0E57-0A3B-4F3C-A952-C36709C9DDC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0054067D-9A6D-41A3-8F97-DAC970362CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>网络名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实测dice（case121-130）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +194,86 @@
   </si>
   <si>
     <t>Sep08_14-54-42</t>
+  </si>
+  <si>
+    <t>实测dice（case121-130） Per Frame 带GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测dice（case121-130） Per Case 带GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测dice（case121-130） Per Frame 不带GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测dice（case121-130） Per Case 不带GT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7086/0.7281</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.552/0.5893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5933/0.6635</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4125/0.5195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7117/0.7179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5597/0.5804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5948/0.6617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.41730.5175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7493/0.7649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5815/0.6157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.622/0.6903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4272/0.5401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6265/0.6937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4284/0.5524</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7434/0.7588</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5753/0.6249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -228,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,17 +369,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,18 +694,21 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="36.5" customWidth="1"/>
+    <col min="10" max="10" width="35.875" customWidth="1"/>
+    <col min="11" max="11" width="38.25" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -634,18 +723,27 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -661,16 +759,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -686,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -708,19 +806,19 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1">
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -733,24 +831,24 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>0.59370000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -762,22 +860,22 @@
         <v>0.71040000000000003</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0.66969999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -789,72 +887,64 @@
         <v>0.68479999999999996</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.75380000000000003</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.69240000000000002</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.75609999999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.68679999999999997</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -869,19 +959,19 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -896,19 +986,19 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -920,22 +1010,31 @@
         <v>0.68020000000000003</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.7117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
@@ -947,88 +1046,121 @@
         <v>0.65839999999999999</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.70860000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.73309999999999997</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.69479999999999997</v>
+      <c r="E14" s="2">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.72919999999999996</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.7591</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.66610000000000003</v>
+      <c r="E15" s="2">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.71130000000000004</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" t="s">
         <v>18</v>
-      </c>
-      <c r="T19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="17:20" x14ac:dyDescent="0.2">
       <c r="S21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\python\LiTS_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0054067D-9A6D-41A3-8F97-DAC970362CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD491F78-109E-4658-9D5A-B7C832F1531C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="450" windowWidth="28110" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>网络名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,26 @@
   </si>
   <si>
     <t>0.5753/0.6249</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUNET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver-Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep19_01-19-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1156,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q19" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q20" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="17:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S21" t="s">
         <v>20</v>
       </c>

--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\python\LiTS_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD491F78-109E-4658-9D5A-B7C832F1531C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADF555B-B188-4796-AE20-EABA3055BBF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="450" windowWidth="28110" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>网络名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep21_16-41_gpu79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver-Res50-Fin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liver-Res50-Val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接拼接/与操作拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,7 +736,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +774,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -785,7 +801,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -810,7 +826,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -835,7 +851,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -860,7 +876,7 @@
         <v>0.59370000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -889,7 +905,7 @@
         <v>0.66969999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -916,7 +932,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -936,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -956,7 +972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -985,7 +1001,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1012,7 +1028,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1047,8 +1063,11 @@
       <c r="L12" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1084,7 +1103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -1120,7 +1139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -1179,7 +1198,39 @@
         <v>67</v>
       </c>
     </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.9284</v>
+      </c>
+      <c r="F18">
+        <v>0.93089999999999995</v>
+      </c>
+    </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.92810000000000004</v>
+      </c>
       <c r="Q19" t="s">
         <v>15</v>
       </c>

--- a/结果对比.xlsx
+++ b/结果对比.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\python\LiTS_Segmentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Python\LiTS_Segmentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADF555B-B188-4796-AE20-EABA3055BBF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01ADF54-BE26-4EBB-8B28-F63D388DA285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>网络名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sep21_16-41_gpu79</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,55 @@
   <si>
     <t>直接拼接/与操作拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUnet50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES50-001-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES50-001-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct16_09-34-53</t>
+  </si>
+  <si>
+    <t>在线测试结果（95.9% GT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case121-130测试结果（100% GT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-004-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES-004-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct16_00-13-58</t>
+  </si>
+  <si>
+    <t>RESUnet34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES34-001-VAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES34-001-FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct16_12-35-42</t>
   </si>
 </sst>
 </file>
@@ -418,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,6 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,7 +782,7 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,20 +807,26 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -797,11 +849,11 @@
       <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -822,11 +874,11 @@
       <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -847,11 +899,11 @@
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -872,11 +924,11 @@
       <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>0.59370000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -901,11 +953,11 @@
       <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>0.66969999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -928,11 +980,11 @@
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -952,7 +1004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -972,7 +1024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -997,11 +1049,11 @@
       <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1024,11 +1076,11 @@
       <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1051,23 +1103,23 @@
       <c r="H12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1090,20 +1142,20 @@
       <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>49</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -1115,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="2">
-        <v>0.75409999999999999</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="F14" s="2">
-        <v>0.72919999999999996</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
@@ -1126,20 +1178,20 @@
       <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>59</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -1151,10 +1203,10 @@
         <v>8</v>
       </c>
       <c r="E15" s="2">
-        <v>0.75729999999999997</v>
+        <v>0.7591</v>
       </c>
       <c r="F15" s="2">
-        <v>0.71130000000000004</v>
+        <v>0.66610000000000003</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>23</v>
@@ -1162,80 +1214,118 @@
       <c r="H15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>0.86760000000000004</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="F17">
-        <v>0.88349999999999995</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>70</v>
+      <c r="A18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>0.9284</v>
+        <v>0.6845</v>
       </c>
       <c r="F18">
-        <v>0.93089999999999995</v>
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>69</v>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>0.92849999999999999</v>
+        <v>0.68720000000000003</v>
       </c>
       <c r="F19">
-        <v>0.92810000000000004</v>
-      </c>
-      <c r="Q19" t="s">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
         <v>15</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
       </c>
       <c r="S19" t="s">
         <v>17</v>
@@ -1245,7 +1335,34 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q20" t="s">
+      <c r="A20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="R20" t="s">
         <v>16</v>
       </c>
       <c r="S20" t="s">
@@ -1253,15 +1370,93 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0.76539999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="S21" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="F29">
+        <v>0.88349999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>0.9284</v>
+      </c>
+      <c r="F30">
+        <v>0.93089999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.92810000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
